--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_System_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_System_JS.xlsx
@@ -1749,20 +1749,6 @@
     <t>call openUrl for image file from /sdcard</t>
   </si>
   <si>
-    <t>wait(3);
-validate1;
-link_Click(system_test_link);
-validate2;
-SelectTestToRun(VT300_076_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT300_076);
-validate4;
-press_Key(Back);</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Manual specs
@@ -2675,6 +2661,20 @@
 validate_CompareEditText(0,http://10.233.85.82/neon/All_index.html);
 press_Key(Back);
 </t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(system_test_link);
+validate2;
+SelectTestToRun(VT300_076_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+UIAutomatorScreenshot(VT300_076);
+validate4;
+press_Key(Back);</t>
   </si>
 </sst>
 </file>
@@ -3168,7 +3168,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3234,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="2" t="s">
@@ -3261,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="2"/>
@@ -3288,10 +3290,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="2"/>
@@ -3342,10 +3344,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -3369,10 +3371,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -3396,10 +3398,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3423,10 +3425,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3450,10 +3452,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -3477,10 +3479,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -3504,10 +3506,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -3531,10 +3533,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -3558,10 +3560,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -3585,10 +3587,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -3612,10 +3614,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -3639,10 +3641,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -3666,10 +3668,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -5043,10 +5045,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H69" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="2"/>
@@ -5070,10 +5072,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="2"/>
@@ -5097,10 +5099,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
@@ -5124,10 +5126,10 @@
         <v>1</v>
       </c>
       <c r="G72" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H72" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
@@ -5145,16 +5147,16 @@
         <v>28</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F73" s="9">
         <v>1</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="2"/>
@@ -5172,16 +5174,16 @@
         <v>28</v>
       </c>
       <c r="E74" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F74" s="9">
+        <v>1</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H74" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="F74" s="9">
-        <v>1</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>219</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="2"/>
@@ -5199,16 +5201,16 @@
         <v>28</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F75" s="9">
         <v>1</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
@@ -5226,16 +5228,16 @@
         <v>28</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F76" s="9">
         <v>1</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
@@ -5253,16 +5255,16 @@
         <v>28</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F77" s="9">
         <v>1</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
@@ -5280,16 +5282,16 @@
         <v>28</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F78" s="9">
         <v>1</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
@@ -5307,16 +5309,16 @@
         <v>28</v>
       </c>
       <c r="E79" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F79" s="9">
+        <v>1</v>
+      </c>
+      <c r="G79" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="F79" s="9">
-        <v>1</v>
-      </c>
-      <c r="G79" s="9" t="s">
+      <c r="H79" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="2"/>
@@ -5334,16 +5336,16 @@
         <v>28</v>
       </c>
       <c r="E80" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F80" s="9">
+        <v>1</v>
+      </c>
+      <c r="G80" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F80" s="9">
-        <v>1</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>233</v>
-      </c>
       <c r="H80" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="2"/>
@@ -5361,16 +5363,16 @@
         <v>28</v>
       </c>
       <c r="E81" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F81" s="9">
+        <v>1</v>
+      </c>
+      <c r="G81" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F81" s="9">
-        <v>1</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>237</v>
-      </c>
       <c r="H81" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_System_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_System_JS.xlsx
@@ -1759,24 +1759,6 @@
 };
 validate3
 {
-validate_Text_Exists=VT300-076
-};
-validate4
-{
-validate_Screenshot=VT300_076
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=System JS Test
-};
-validate3
-{
 validate_Text_Exists=VT300-075
 };
 validate4
@@ -2675,6 +2657,24 @@
 UIAutomatorScreenshot(VT300_076);
 validate4;
 press_Key(Back);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=System JS Test
+};
+validate3
+{
+validate_Text_Exists=VT300-076
+};
+validate4
+{
+UIAutomatorScreenshot=VT300_076
+};</t>
   </si>
 </sst>
 </file>
@@ -3168,9 +3168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3236,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="2" t="s">
@@ -3263,10 +3261,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="2"/>
@@ -3290,10 +3288,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="2"/>
@@ -3344,10 +3342,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -3371,10 +3369,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -3398,10 +3396,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3425,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>237</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>238</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3452,10 +3450,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -3479,10 +3477,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -3506,10 +3504,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -3533,10 +3531,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -3560,10 +3558,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -3587,10 +3585,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -3614,10 +3612,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -3641,10 +3639,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -3668,10 +3666,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -5045,10 +5043,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H69" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="2"/>
@@ -5072,10 +5070,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="2"/>
@@ -5099,10 +5097,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
@@ -5126,10 +5124,10 @@
         <v>1</v>
       </c>
       <c r="G72" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H72" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
@@ -5147,16 +5145,16 @@
         <v>28</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F73" s="9">
         <v>1</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="2"/>
@@ -5174,16 +5172,16 @@
         <v>28</v>
       </c>
       <c r="E74" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F74" s="9">
+        <v>1</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H74" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="F74" s="9">
-        <v>1</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="2"/>
@@ -5201,16 +5199,16 @@
         <v>28</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F75" s="9">
         <v>1</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
@@ -5228,16 +5226,16 @@
         <v>28</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F76" s="9">
         <v>1</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
@@ -5255,16 +5253,16 @@
         <v>28</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F77" s="9">
         <v>1</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
@@ -5282,16 +5280,16 @@
         <v>28</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F78" s="9">
         <v>1</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
@@ -5309,16 +5307,16 @@
         <v>28</v>
       </c>
       <c r="E79" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F79" s="9">
+        <v>1</v>
+      </c>
+      <c r="G79" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F79" s="9">
-        <v>1</v>
-      </c>
-      <c r="G79" s="9" t="s">
+      <c r="H79" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="2"/>
@@ -5336,16 +5334,16 @@
         <v>28</v>
       </c>
       <c r="E80" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F80" s="9">
+        <v>1</v>
+      </c>
+      <c r="G80" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F80" s="9">
-        <v>1</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>232</v>
-      </c>
       <c r="H80" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="2"/>
@@ -5363,16 +5361,16 @@
         <v>28</v>
       </c>
       <c r="E81" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F81" s="9">
+        <v>1</v>
+      </c>
+      <c r="G81" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="F81" s="9">
-        <v>1</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>236</v>
-      </c>
       <c r="H81" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_System_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_System_JS.xlsx
@@ -2653,10 +2653,9 @@
 ClickRunTest(runtest_top_xpath);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-wait(5);
 UIAutomatorScreenshot(VT300_076);
-validate4;
-press_Key(Back);</t>
+press_Key(Back);
+validate4;</t>
   </si>
   <si>
     <t>validate1
@@ -2673,7 +2672,7 @@
 };
 validate4
 {
-UIAutomatorScreenshot=VT300_076
+validate_Screenshot=VT300_076
 };</t>
   </si>
 </sst>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_System_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_System_JS.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$1:$K$18</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -1771,20 +1771,6 @@
 validate1;
 link_Click(system_test_link);
 validate2;
-SelectTestToRun(VT300_061_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(10);
-validate4;
-CheckUITextContains(https://www.google.co.in);
-press_Key(Back);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(system_test_link);
-validate2;
 SelectTestToRun(VT300_003_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
@@ -1903,24 +1889,6 @@
 validate4
 {
 validate_Result=http://wwwgate0.mot.com:1080
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=System JS Test
-};
-validate3
-{
-validate_Text_Exists=VT300-061
-};
-validate4
-{
-validate_App_Launched_Device=com.android.browser
 };</t>
   </si>
   <si>
@@ -2674,6 +2642,38 @@
 {
 validate_Screenshot=VT300_076
 };</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=System JS Test
+};
+validate3
+{
+validate_Text_Exists=VT300-061
+};
+validate4
+{
+validate_App_Launched_Device=com.android.browser
+validate_CompareEditText=0,google
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(system_test_link);
+validate2;
+SelectTestToRun(VT300_061_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(10);
+validate4;
+press_Key(Back);</t>
   </si>
 </sst>
 </file>
@@ -3167,7 +3167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3233,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="2" t="s">
@@ -3260,10 +3262,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="2"/>
@@ -3287,10 +3289,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="2"/>
@@ -3341,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -3368,10 +3370,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -3395,10 +3397,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3422,10 +3424,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3449,16 +3451,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="217.5" thickBot="1">
+    <row r="11" spans="1:11" ht="230.25" thickBot="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3476,10 +3478,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -3503,10 +3505,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -3530,10 +3532,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -3557,10 +3559,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -3584,10 +3586,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -3611,10 +3613,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -3638,10 +3640,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -3665,10 +3667,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -5042,10 +5044,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="2"/>
@@ -5069,10 +5071,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="2"/>
@@ -5096,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>185</v>
@@ -5123,10 +5125,10 @@
         <v>1</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
@@ -5144,16 +5146,16 @@
         <v>28</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F73" s="9">
         <v>1</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="2"/>
@@ -5171,16 +5173,16 @@
         <v>28</v>
       </c>
       <c r="E74" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F74" s="9">
+        <v>1</v>
+      </c>
+      <c r="G74" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="F74" s="9">
-        <v>1</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="H74" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="2"/>
@@ -5198,16 +5200,16 @@
         <v>28</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F75" s="9">
+        <v>1</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H75" s="9" t="s">
         <v>242</v>
-      </c>
-      <c r="F75" s="9">
-        <v>1</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>244</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
@@ -5225,16 +5227,16 @@
         <v>28</v>
       </c>
       <c r="E76" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F76" s="9">
+        <v>1</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H76" s="9" t="s">
         <v>243</v>
-      </c>
-      <c r="F76" s="9">
-        <v>1</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
@@ -5252,16 +5254,16 @@
         <v>28</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F77" s="9">
         <v>1</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
@@ -5279,16 +5281,16 @@
         <v>28</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F78" s="9">
         <v>1</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
@@ -5306,16 +5308,16 @@
         <v>28</v>
       </c>
       <c r="E79" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F79" s="9">
+        <v>1</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H79" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="F79" s="9">
-        <v>1</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="2"/>
@@ -5333,16 +5335,16 @@
         <v>28</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F80" s="9">
         <v>1</v>
       </c>
       <c r="G80" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H80" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="2"/>
@@ -5360,16 +5362,16 @@
         <v>28</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F81" s="9">
         <v>1</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_System_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_System_JS.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$1:$K$18</definedName>
   </definedNames>
-  <calcPr calcId="125725" calcMode="manual"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -2613,19 +2613,6 @@
 </t>
   </si>
   <si>
-    <t>wait(3);
-validate1;
-link_Click(system_test_link);
-validate2;
-SelectTestToRun(VT300_076_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-UIAutomatorScreenshot(VT300_076);
-press_Key(Back);
-validate4;</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Manual specs
@@ -2674,6 +2661,20 @@
 wait(10);
 validate4;
 press_Key(Back);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(system_test_link);
+validate2;
+SelectTestToRun(VT300_076_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+UIAutomatorScreenshot(VT300_076);
+press_Key(Back);
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -3167,9 +3168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3478,10 +3477,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -5125,10 +5124,10 @@
         <v>1</v>
       </c>
       <c r="G72" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H72" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>248</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_System_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_System_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="248">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -1562,9 +1562,6 @@
 validate4;</t>
   </si>
   <si>
-    <t>call getproperties with phoneNumber</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Manual specs
@@ -1580,35 +1577,6 @@
 validate4
 {
 validate_SystemProperties=locale
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(system_test_link);
-validate2;
-SelectTestToRun(VT300_045_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=System JS Test
-};
-validate3
-{
-validate_Text_Exists=VT300-045
-};
-validate4
-{
-validate_SystemProperties=phoneNumber
 };</t>
   </si>
   <si>
@@ -3166,9 +3134,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3234,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="2" t="s">
@@ -3261,10 +3231,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="2"/>
@@ -3288,10 +3258,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="2"/>
@@ -3342,10 +3312,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -3369,10 +3339,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -3396,10 +3366,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3423,10 +3393,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3450,10 +3420,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -3477,10 +3447,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -3504,10 +3474,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -3531,10 +3501,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -3558,10 +3528,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -3585,10 +3555,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -3612,10 +3582,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -3639,10 +3609,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -3666,10 +3636,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -4884,7 +4854,7 @@
         <v>165</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="2"/>
@@ -4892,7 +4862,7 @@
     </row>
     <row r="64" spans="1:11" ht="204.75" thickBot="1">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -4902,7 +4872,7 @@
         <v>28</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F64" s="9">
         <v>1</v>
@@ -4911,7 +4881,7 @@
         <v>168</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="2"/>
@@ -4919,7 +4889,7 @@
     </row>
     <row r="65" spans="1:11" ht="204.75" thickBot="1">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -4929,7 +4899,7 @@
         <v>28</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F65" s="9">
         <v>1</v>
@@ -4938,7 +4908,7 @@
         <v>171</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="2"/>
@@ -4946,7 +4916,7 @@
     </row>
     <row r="66" spans="1:11" ht="204.75" thickBot="1">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
@@ -4956,16 +4926,16 @@
         <v>28</v>
       </c>
       <c r="E66" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F66" s="9">
+        <v>1</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H66" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="F66" s="9">
-        <v>1</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="2"/>
@@ -4973,7 +4943,7 @@
     </row>
     <row r="67" spans="1:11" ht="204.75" thickBot="1">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
@@ -4983,24 +4953,24 @@
         <v>28</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F67" s="9">
         <v>1</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" ht="204.75" thickBot="1">
+    <row r="68" spans="1:11" ht="255.75" thickBot="1">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
@@ -5010,16 +4980,16 @@
         <v>28</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F68" s="9">
         <v>1</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="2"/>
@@ -5027,7 +4997,7 @@
     </row>
     <row r="69" spans="1:11" ht="255.75" thickBot="1">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
@@ -5037,51 +5007,51 @@
         <v>28</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F69" s="9">
         <v>1</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" ht="255.75" thickBot="1">
+    <row r="70" spans="1:11" ht="217.5" thickBot="1">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
       </c>
-      <c r="C70" s="4"/>
+      <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E70" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F70" s="9">
+        <v>1</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H70" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F70" s="9">
-        <v>1</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="I70" s="10"/>
-      <c r="J70" s="2"/>
+      <c r="J70" s="10"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" ht="217.5" thickBot="1">
+    <row r="71" spans="1:11" ht="204.75" thickBot="1">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
@@ -5091,51 +5061,51 @@
         <v>28</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F71" s="9">
         <v>1</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" ht="204.75" thickBot="1">
+    <row r="72" spans="1:11" ht="255.75" thickBot="1">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="F72" s="9">
         <v>1</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
+      <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" ht="255.75" thickBot="1">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1">
         <v>1</v>
@@ -5145,51 +5115,51 @@
         <v>28</v>
       </c>
       <c r="E73" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F73" s="9">
+        <v>1</v>
+      </c>
+      <c r="G73" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F73" s="9">
-        <v>1</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>222</v>
-      </c>
       <c r="H73" s="9" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" ht="255.75" thickBot="1">
+    <row r="74" spans="1:11" ht="243" thickBot="1">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
       </c>
-      <c r="C74" s="4"/>
+      <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="F74" s="9">
         <v>1</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="I74" s="10"/>
-      <c r="J74" s="2"/>
+      <c r="J74" s="10"/>
       <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:11" ht="243" thickBot="1">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
@@ -5199,24 +5169,24 @@
         <v>28</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F75" s="9">
+        <v>1</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H75" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="F75" s="9">
-        <v>1</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>242</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" ht="243" thickBot="1">
+    <row r="76" spans="1:11" ht="204.75" thickBot="1">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1">
         <v>1</v>
@@ -5226,16 +5196,16 @@
         <v>28</v>
       </c>
       <c r="E76" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F76" s="9">
+        <v>1</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H76" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="F76" s="9">
-        <v>1</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>243</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
@@ -5243,7 +5213,7 @@
     </row>
     <row r="77" spans="1:11" ht="204.75" thickBot="1">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1">
         <v>1</v>
@@ -5253,16 +5223,16 @@
         <v>28</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F77" s="9">
         <v>1</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
@@ -5270,34 +5240,34 @@
     </row>
     <row r="78" spans="1:11" ht="204.75" thickBot="1">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
       </c>
-      <c r="C78" s="1"/>
+      <c r="C78" s="4"/>
       <c r="D78" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E78" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F78" s="9">
+        <v>1</v>
+      </c>
+      <c r="G78" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="F78" s="9">
-        <v>1</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>236</v>
-      </c>
       <c r="H78" s="9" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
+      <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
     <row r="79" spans="1:11" ht="204.75" thickBot="1">
-      <c r="A79" s="1">
-        <v>78</v>
+      <c r="A79" s="12">
+        <v>79</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -5316,15 +5286,15 @@
         <v>226</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:11" ht="204.75" thickBot="1">
+    <row r="80" spans="1:11" ht="243" thickBot="1">
       <c r="A80" s="12">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
@@ -5334,47 +5304,20 @@
         <v>28</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F80" s="9">
         <v>1</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" ht="243" thickBot="1">
-      <c r="A81" s="12">
-        <v>80</v>
-      </c>
-      <c r="B81" s="1">
-        <v>1</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F81" s="9">
-        <v>1</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I81" s="10"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
